--- a/medicine/Enfance/Joan_Aiken/Joan_Aiken.xlsx
+++ b/medicine/Enfance/Joan_Aiken/Joan_Aiken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joan Aiken, née le 4 septembre 1924 à Rye dans le comté du Sussex de l'Est en Angleterre et morte le 4 janvier 2004 à Petworth dans le comté du Sussex de l'Ouest, est une écrivaine anglaise célèbre pour ses nombreux écrits pour l'enfance et la jeunesse. Elle est la fille du poète américain Conrad Aiken et la sœur de la romancière Jane Aiken Hodge (en).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la Seconde Guerre mondiale, Joan Aiken travaille successivement à la BBC et à la bibliothèque du centre d'information des Nations unies.
 Pendant la deuxième moitié des années 1950, elle est rédactrice, puis directrice de publication du magazine Argosy où paraissent ses premières nouvelles policières. Elle continue d'en écrire pendant la décennie suivante et se forge une réputation de nouvelliste.
@@ -548,12 +562,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Death on a Rainy Sunday (1972) Publié en français sous le titre Mort un dimanche de pluie, Paris, PAC, coll. Red Label B.B. no 15, 1978 ; réédition, Paris, Rivages/Noir no 11, 1986
-The Five-Minute Marriage (1977) Publié en français sous le titre Mariage blanc, traduction de Marie-Alyx Révellat, Paris, Presses de la Cité, 1979
-Romans de littérature d'enfance et de jeunesse
-Série Wolves of Willoughby Chase ou Wolves Chronicles
-The Wolves of Willoughby Chase (1962) Publié en français sous le titre Sylvia et Bonnie au pays des loups, G. P., 1966 Publié en français sous le titre Le Manoir aux Loups, Gallimard Jeunesse, 1995
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Death on a Rainy Sunday (1972) Publié en français sous le titre Mort un dimanche de pluie, Paris, PAC, coll. Red Label B.B. no 15, 1978 ; réédition, Paris, Rivages/Noir no 11, 1986
+The Five-Minute Marriage (1977) Publié en français sous le titre Mariage blanc, traduction de Marie-Alyx Révellat, Paris, Presses de la Cité, 1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Wolves of Willoughby Chase ou Wolves Chronicles</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Wolves of Willoughby Chase (1962) Publié en français sous le titre Sylvia et Bonnie au pays des loups, G. P., 1966 Publié en français sous le titre Le Manoir aux Loups, Gallimard Jeunesse, 1995
 Black Hearts in Battersea (1964)
 Nightbirds on Nantucket (1966)
 The Whispering Mountain (1968)
@@ -564,9 +620,43 @@
 Is ou Is Underground (1992)
 Cold Shoulder Road (1995)
 Midwinter Nightingale (2003)
-The Witch of Clatteringshaws (2005)
-Série Arabel et Mortimer
-Arabel's Raven (1972) Publié en français sous le titre Le Corbeau d'Arabelle, traduction de Jean Queval, illustration de Quentin Blake, Fernand Nathan, 1982, réédition Paris, Pocket jeunesse, 1997
+The Witch of Clatteringshaws (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Arabel et Mortimer</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Arabel's Raven (1972) Publié en français sous le titre Le Corbeau d'Arabelle, traduction de Jean Queval, illustration de Quentin Blake, Fernand Nathan, 1982, réédition Paris, Pocket jeunesse, 1997
 Escaped Black Mamba (1973)
 The Bread Bin (1974)
 Mortimer's Tie (1976) Publié en français sous le titre Arabelle en croisière, traduction de Jean Queval, illustration de Quentin Blake, Fernand Nathan, 1983, réédition Paris, Pocket jeunesse, 1998
@@ -578,21 +668,157 @@
 Mortimer Says Nothing (1985)
 Arabel and Mortimer (1992)
 Mortimer's Mine (1994)
-Mayhem in Rumbury (1995)
-Série famille Paget
-The Smile of the Stranger (1978)
+Mayhem in Rumbury (1995)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série famille Paget</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Smile of the Stranger (1978)
 The Lightning Tree ou The Weeping Ash (1980)
-The Young Lady from Paris ou The Girl from Paris(1982)
-Trilogie Felix
-Go Saddle the Sea (1978)
+The Young Lady from Paris ou The Girl from Paris(1982)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Trilogie Felix</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Go Saddle the Sea (1978)
 Bridle the Wind (1983)
-The Teeth of the Gale (1988)
-Série St Ives
-In Thunder's Pocket (2001)
+The Teeth of the Gale (1988)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série St Ives</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>In Thunder's Pocket (2001)
 Song of Mat and Ben (2001)
-Bone and Dream (2002)
-Autres romans pour la jeunesse et policiers
-The Kingdom and The Cave (1960)
+Bone and Dream (2002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres romans pour la jeunesse et policiers</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Kingdom and The Cave (1960)
 The Silence of Herondale (1964)
 The Fortune Hunters (1965)
 Trouble with Product X ou Beware of the Bouquet (1966)
@@ -619,9 +845,43 @@
 The Cockatrice Boys (1996)
 Emma Watson (1996)
 The Youngest Miss Ward (1998)
-Lady Catherine's Necklace (2000)
-Recueils de nouvelles
-All You've Ever Wanted and Other Stories (1953)
+Lady Catherine's Necklace (2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>All You've Ever Wanted and Other Stories (1953)
 More Than You Bargained For and Other Stories (1955)
 A Necklace of Raindrops (1968) Publié en français sous le titre Les Perles de la pluie, traduction de Sylvette Brisson-Lamy, Paris, G. P., 1981, réédition Paris, Le Livre de poche jeunesse, 1989
 Smoke from Cromwell's Time and Other Stories (1970)
@@ -648,8 +908,43 @@
 Dead Man's Lane (1996)
 The Scream (2002)
 Snow Horse: And Other Stories (2004)
-The People in the Castle: Selected Strange Stories (2016)
-Nouvelles
+The People in the Castle: Selected Strange Stories (2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Music for the Wicked Countess (1955)
 Follow My Fancy (1956)
 Model Wife (1956)
@@ -689,114 +984,260 @@
 Conspiracy of Two (1965)
 Mademoiselle Crusoe (1966)
 Take a Book Wherever You Go (1973)
-Recueil de poésie
-The Skin Spinners (1976)
-Pièces de théâtre
-Winterthing: A Play for Children (1972)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Recueil de poésie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The Skin Spinners (1976)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Winterthing: A Play for Children (1972)
 The Mooncusser's Daughter: A Play for Children (1974)
 The Tinker's Curse (1978)
-Street (1978)
-Essais
-The Way to Write for Children (1982)
+Street (1978)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>The Way to Write for Children (1982)
 Conrad Aiken, Our Father (1989)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Joan_Aiken</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adaptations à la télévision
-1968 – 1974 : Jackanory, quatorze romans adaptés et lus.
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Adaptations à la télévision</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1968 – 1974 : Jackanory, quatorze romans adaptés et lus.
 1977 : The Apple of Discord, téléfilm américain réalisé par Roger Singleton-Turner (en), scénario de Joan Aiken.
 1977 – 1978 : Midnight Is a Place, mini-sérié télévisée britannique réalisé par Christopher McMaster d'après le roman éponyme.
 1993 – 1994 : Mortimer and Arabel, spectacle de marionnettes inspiré par la sérié de romans eponyme.
-1995 – 1996 : Black Hearts in Battersea, mini-sérié télévisée américaine réalisé par David Bell d'après le roman éponyme.
-Adaptations au cinéma
-1986 : Mort un dimanche de pluie, thriller français réalisé par Joël Santoni d'après le roman éponyme.
+1995 – 1996 : Black Hearts in Battersea, mini-sérié télévisée américaine réalisé par David Bell d'après le roman éponyme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Adaptations au cinéma</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1986 : Mort un dimanche de pluie, thriller français réalisé par Joël Santoni d'après le roman éponyme.
 1989 : The Wolves of Willoughby Chase, film américain réalisé par Stuart Orme d'après le roman éponyme.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Joan_Aiken</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Prix et distinctions notables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>1969 : Guardian Children's Fiction Prize (en) pour le roman The Whispering Mountain.
-1972 : Prix Edgar-Allan-Poe du meilleur roman pour la jeunesse avec le roman Night Fall[1].
+1972 : Prix Edgar-Allan-Poe du meilleur roman pour la jeunesse avec le roman Night Fall.
 1999 : Membre de l'ordre de l'Empire britannique (MBE) pour sa carrière de romancière.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Joan_Aiken</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joan_Aiken</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 42.</t>
         </is>
